--- a/excel_import/oqc_report_template.xlsx
+++ b/excel_import/oqc_report_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://johnsonoutdoorsinc-my.sharepoint.com/personal/david_zhang_johnsonoutdoors_com/Documents/Documents/My Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://johnsonoutdoorsinc-my.sharepoint.com/personal/david_zhang_johnsonoutdoors_com/Documents/David's Stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{A1CECE6E-458F-422C-A05E-4186ECEC6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB4EC6C7-AD77-45EC-890D-9146635490DA}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{A1CECE6E-458F-422C-A05E-4186ECEC6448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{786ADD90-FB12-40E3-8394-9958ECEB1FA5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Part Number :</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>OQC Result Report</t>
+  </si>
+  <si>
+    <t>Created By</t>
   </si>
 </sst>
 </file>
@@ -163,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,6 +218,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,10 +539,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,20 +552,22 @@
     <col min="4" max="4" width="18.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="7" max="7" width="18.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="1" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" s="1" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="8"/>
       <c r="D1" s="4"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
@@ -567,9 +575,10 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="2:7" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -577,8 +586,9 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
@@ -587,40 +597,42 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
@@ -637,27 +649,30 @@
         <v>9</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
